--- a/Tables replicated/Table3.3.xlsx
+++ b/Tables replicated/Table3.3.xlsx
@@ -413,282 +413,282 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.497990887340848</v>
+        <v>0.469863576920119</v>
       </c>
       <c r="B2" t="n">
-        <v>0.644770189836854</v>
+        <v>0.43343114528157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.496760068839769</v>
+        <v>0.547153909441753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.621257775546577</v>
+        <v>0.523496489292367</v>
       </c>
       <c r="E2" t="n">
-        <v>0.624966099156062</v>
+        <v>0.514292123944078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.305360886587793</v>
+        <v>0.590967853898318</v>
       </c>
       <c r="G2" t="n">
-        <v>0.309124584364656</v>
+        <v>0.629487736392546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.661311586489194</v>
+        <v>0.521620333755095</v>
       </c>
       <c r="I2" t="n">
-        <v>0.385032976618475</v>
+        <v>0.317568487969636</v>
       </c>
       <c r="J2" t="n">
-        <v>0.435424991734636</v>
+        <v>-0.0272306438153983</v>
       </c>
       <c r="K2" t="n">
-        <v>0.320985500180766</v>
+        <v>0.764038219654341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.65007610944606</v>
+        <v>2.3294515333757</v>
       </c>
       <c r="B3" t="n">
-        <v>2.22399061886612</v>
+        <v>1.84236444823168</v>
       </c>
       <c r="C3" t="n">
-        <v>1.572609801671</v>
+        <v>2.20779073622071</v>
       </c>
       <c r="D3" t="n">
-        <v>2.02609894094185</v>
+        <v>1.94085986524742</v>
       </c>
       <c r="E3" t="n">
-        <v>2.03645096544456</v>
+        <v>1.73642352384199</v>
       </c>
       <c r="F3" t="n">
-        <v>0.941078582792984</v>
+        <v>1.87133401424967</v>
       </c>
       <c r="G3" t="n">
-        <v>0.993186424209394</v>
+        <v>1.83562415655852</v>
       </c>
       <c r="H3" t="n">
-        <v>2.10642191875928</v>
+        <v>1.38033019047249</v>
       </c>
       <c r="I3" t="n">
-        <v>1.25356381227561</v>
+        <v>0.721389038675048</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36778633781595</v>
+        <v>-0.0444919048736498</v>
       </c>
       <c r="K3" t="n">
-        <v>0.319154934561232</v>
+        <v>1.7109533056666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.42</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.57</v>
-      </c>
       <c r="I4" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="J4" t="n">
-        <v>0.36</v>
+        <v>-0.24</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.22</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.37</v>
+        <v>2.24</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="C5" t="n">
-        <v>1.35</v>
+        <v>2.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="E5" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="F5" t="n">
-        <v>0.77</v>
+        <v>1.65</v>
       </c>
       <c r="G5" t="n">
-        <v>0.77</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>1.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.17</v>
+        <v>0.47</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>-0.38</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.22</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.39</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.53</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="J6" t="n">
-        <v>0.34</v>
+        <v>-0.28</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.25</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.3</v>
+        <v>2.21</v>
       </c>
       <c r="B7" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="C7" t="n">
-        <v>1.27</v>
+        <v>2.04</v>
       </c>
       <c r="D7" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="E7" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>0.71</v>
+        <v>1.54</v>
       </c>
       <c r="H7" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="I7" t="n">
-        <v>1.12</v>
+        <v>0.39</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>-0.46</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.25</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="B8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.6</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.27</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.57</v>
+        <v>0.42</v>
       </c>
       <c r="I8" t="n">
-        <v>0.38</v>
+        <v>0.18</v>
       </c>
       <c r="J8" t="n">
-        <v>0.39</v>
+        <v>-0.25</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.35</v>
+        <v>2.37</v>
       </c>
       <c r="B9" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="C9" t="n">
-        <v>1.38</v>
+        <v>2.28</v>
       </c>
       <c r="D9" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="E9" t="n">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="F9" t="n">
-        <v>0.87</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>0.87</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="I9" t="n">
-        <v>1.22</v>
+        <v>0.41</v>
       </c>
       <c r="J9" t="n">
-        <v>1.22</v>
+        <v>-0.4</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="10">
@@ -696,101 +696,101 @@
         <v>0.4</v>
       </c>
       <c r="B10" t="n">
-        <v>0.62</v>
+        <v>0.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D10" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.53</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>0.59</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.33</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.42</v>
-      </c>
       <c r="J10" t="n">
-        <v>0.45</v>
+        <v>-0.04</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.58</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.27</v>
+        <v>1.89</v>
       </c>
       <c r="B11" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="C11" t="n">
-        <v>1.31</v>
+        <v>1.69</v>
       </c>
       <c r="D11" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="E11" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>0.96</v>
+        <v>1.59</v>
       </c>
       <c r="G11" t="n">
-        <v>0.94</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="J11" t="n">
-        <v>1.33</v>
+        <v>-0.07</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.56</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
       <c r="B12" t="n">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="C12" t="n">
         <v>0.83</v>
       </c>
       <c r="D12" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.94</v>
       </c>
-      <c r="E12" t="n">
-        <v>1.03</v>
-      </c>
       <c r="F12" t="n">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="H12" t="n">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="I12" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.31</v>
+        <v>1.51</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -798,107 +798,107 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.096</v>
+        <v>0.01</v>
       </c>
       <c r="B13" t="n">
-        <v>0.104</v>
+        <v>0.01</v>
       </c>
       <c r="C13" t="n">
-        <v>0.079</v>
+        <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>0.072</v>
+        <v>0.07</v>
       </c>
       <c r="E13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.08</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.062</v>
-      </c>
       <c r="G13" t="n">
-        <v>0.082</v>
+        <v>0.09</v>
       </c>
       <c r="H13" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>0.023</v>
+        <v>0.13</v>
       </c>
       <c r="J13" t="n">
-        <v>0.094</v>
+        <v>0.26</v>
       </c>
       <c r="K13" t="n">
-        <v>0.669</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>18.73</v>
+        <v>12.52</v>
       </c>
       <c r="B14" t="n">
-        <v>17.99</v>
+        <v>14.6</v>
       </c>
       <c r="C14" t="n">
-        <v>19.61</v>
+        <v>15.38</v>
       </c>
       <c r="D14" t="n">
-        <v>19.03</v>
+        <v>16.74</v>
       </c>
       <c r="E14" t="n">
-        <v>19.05</v>
+        <v>18.38</v>
       </c>
       <c r="F14" t="n">
-        <v>20.14</v>
+        <v>19.6</v>
       </c>
       <c r="G14" t="n">
-        <v>19.32</v>
+        <v>21.28</v>
       </c>
       <c r="H14" t="n">
-        <v>19.49</v>
+        <v>23.45</v>
       </c>
       <c r="I14" t="n">
-        <v>19.06</v>
+        <v>27.32</v>
       </c>
       <c r="J14" t="n">
-        <v>19.76</v>
+        <v>37.99</v>
       </c>
       <c r="K14" t="n">
-        <v>62.42</v>
+        <v>27.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="B15" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C15" t="n">
         <v>0.43</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.3</v>
-      </c>
       <c r="D15" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="E15" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="F15" t="n">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="H15" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="I15" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="J15" t="n">
-        <v>0.26</v>
+        <v>-0.01</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
